--- a/Результаты тестирования практики10.xlsx
+++ b/Результаты тестирования практики10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaklekovkina/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CBAAAE-901F-F04C-8AD7-211CC8061BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFF3678-830E-E748-9561-28A1E7AF7724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="2140" windowWidth="24940" windowHeight="14160" xr2:uid="{37BDB9B0-3AFB-0A40-8FC4-FD89F944BCA4}"/>
+    <workbookView xWindow="660" yWindow="640" windowWidth="24940" windowHeight="14160" xr2:uid="{37BDB9B0-3AFB-0A40-8FC4-FD89F944BCA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="139">
   <si>
     <t>Функциональне требование</t>
   </si>
@@ -366,7 +366,100 @@
     <t>10) Средний балл.</t>
   </si>
   <si>
-    <t>Вывод: функции программы работают, но почти нигде не реализован контроль вводимых значений, нет сообщений об успешности или провале действия.</t>
+    <t>меню</t>
+  </si>
+  <si>
+    <t>Основное меню преподавателя</t>
+  </si>
+  <si>
+    <t>Ввод корректных значений: 2</t>
+  </si>
+  <si>
+    <t>меню «работа со списком   студентов»</t>
+  </si>
+  <si>
+    <t>ок</t>
+  </si>
+  <si>
+    <t>Ввод некорректных значений: 12</t>
+  </si>
+  <si>
+    <t>сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>«Вы ввели неверное значение, попробуйте снова!»</t>
+  </si>
+  <si>
+    <t>вывод списка студентов</t>
+  </si>
+  <si>
+    <t>вывод по всем темам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вывод фамилий, имён и всех оценок </t>
+  </si>
+  <si>
+    <t>вывод по конкретной теме</t>
+  </si>
+  <si>
+    <t>вывод оценки по конкретной теме</t>
+  </si>
+  <si>
+    <t>вывод оценок за итоговый тест</t>
+  </si>
+  <si>
+    <t>вывод среднего балла</t>
+  </si>
+  <si>
+    <t>фильтрация оценок</t>
+  </si>
+  <si>
+    <t>фильтрация оценок студентов по всем темам</t>
+  </si>
+  <si>
+    <t>фильтрация по оценкам</t>
+  </si>
+  <si>
+    <t>фильтрация по именам</t>
+  </si>
+  <si>
+    <t>несоответствие тз</t>
+  </si>
+  <si>
+    <t>фильтрация оценок студентов по конкретной теме</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ок</t>
+  </si>
+  <si>
+    <t>фильтрация оценок за итоговый тест</t>
+  </si>
+  <si>
+    <t>фильтрация среднего балла</t>
+  </si>
+  <si>
+    <t>сортировка оценок</t>
+  </si>
+  <si>
+    <t>сортировка оценок по всем темам</t>
+  </si>
+  <si>
+    <t>вывод отсортированного списка с фамилиями и оценками от меньших к большим</t>
+  </si>
+  <si>
+    <t>не предусмотрено</t>
+  </si>
+  <si>
+    <t>Итоговый тест</t>
+  </si>
+  <si>
+    <t>Средний балл</t>
+  </si>
+  <si>
+    <t>Вывод:  функции программы работают, но почти нигде не реализован контроль вводимых значений, нет сообщений об успешности или провале действия. вывод в фильтрации всех оценок реализован по Фамилиям и именам студентов, а не по оценкам. сортировка по всем оценкам студента не предусмотрена.</t>
+  </si>
+  <si>
+    <t>Вывод о всем проекте: проект работает корректно, но есть недочеты и несоответсвие с ТЗ.</t>
   </si>
 </sst>
 </file>
@@ -446,7 +539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -620,48 +713,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -705,6 +761,45 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -730,64 +825,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF9BD00-F0BB-6E45-A4A7-6498B1FB6455}">
   <dimension ref="A1:E344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1119,13 +1157,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" ht="38" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1162,22 +1200,22 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" ht="38" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -1347,7 +1385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="95" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>22</v>
       </c>
@@ -1381,7 +1419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>38</v>
       </c>
@@ -1402,7 +1440,7 @@
       <c r="A19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1433,7 +1471,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="38" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -1449,8 +1487,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="247" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:5" ht="133" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -1467,7 +1505,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="38" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -1483,8 +1521,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:5" ht="38" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -1500,8 +1538,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="76" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+    <row r="25" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -1518,7 +1556,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="38" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -1535,7 +1573,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="38" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="13">
@@ -1552,13 +1590,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -1568,63 +1606,63 @@
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" spans="1:5" ht="38" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5" ht="38" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="27" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1632,97 +1670,97 @@
       <c r="A35" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="27"/>
     </row>
     <row r="37" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="27"/>
     </row>
     <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="31"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:5" ht="38" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="23" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1730,97 +1768,97 @@
       <c r="A45" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="32"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="23"/>
     </row>
     <row r="46" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="32"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="23"/>
     </row>
     <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="32"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="32"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="23"/>
     </row>
     <row r="49" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="32"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="23"/>
     </row>
     <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="32"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="23"/>
     </row>
     <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="32"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="23"/>
     </row>
     <row r="52" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="32"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
     </row>
     <row r="54" spans="1:5" ht="95" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="40" t="s">
+      <c r="E54" s="23" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1828,91 +1866,91 @@
       <c r="A55" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="41"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="23"/>
     </row>
     <row r="56" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="41"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="23"/>
     </row>
     <row r="57" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="41"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="23"/>
     </row>
     <row r="58" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="41"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="23"/>
     </row>
     <row r="59" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="41"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="23"/>
     </row>
     <row r="60" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="41"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="23"/>
     </row>
     <row r="61" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="41"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="23"/>
     </row>
     <row r="62" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="42"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="23"/>
     </row>
     <row r="63" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
     </row>
     <row r="64" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
     </row>
     <row r="65" spans="1:5" ht="38" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
@@ -1927,7 +1965,7 @@
       <c r="D65" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="33" t="s">
+      <c r="E65" s="18" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1944,33 +1982,33 @@
       <c r="D66" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E66" s="34" t="s">
+      <c r="E66" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
     </row>
     <row r="68" spans="1:5" ht="38" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E68" s="23" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1978,390 +2016,629 @@
       <c r="A69" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="32"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="23"/>
     </row>
     <row r="70" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="32"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="23"/>
     </row>
     <row r="71" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="32"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="23"/>
     </row>
     <row r="72" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="32"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="23"/>
     </row>
     <row r="73" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="32"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="23"/>
     </row>
     <row r="74" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="32"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="23"/>
     </row>
     <row r="75" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="32"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="23"/>
     </row>
     <row r="76" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="32"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="23"/>
     </row>
     <row r="77" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="32"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="23"/>
     </row>
     <row r="78" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="32"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="23"/>
     </row>
     <row r="79" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-    </row>
-    <row r="80" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+    </row>
+    <row r="80" spans="1:5" ht="38" x14ac:dyDescent="0.2">
+      <c r="A80" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="38" x14ac:dyDescent="0.2">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+    </row>
+    <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+    </row>
+    <row r="84" spans="1:5" ht="38" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="13">
+        <v>1</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="38" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="20">
+        <v>2</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A86" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="27"/>
+    </row>
+    <row r="87" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="27"/>
+    </row>
+    <row r="88" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A88" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="27"/>
+    </row>
+    <row r="89" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A89" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="27"/>
+    </row>
+    <row r="90" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A90" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="27"/>
+    </row>
+    <row r="91" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A91" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="27"/>
+    </row>
+    <row r="92" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="27"/>
+    </row>
+    <row r="93" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="27"/>
+    </row>
+    <row r="94" spans="1:5" ht="38" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="13">
+        <v>3</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A95" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" s="13">
+        <v>4</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+    </row>
+    <row r="97" spans="1:5" ht="38" x14ac:dyDescent="0.2">
+      <c r="A97" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="13">
+        <v>1</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A98" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" s="20">
+        <v>2</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A99" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="27"/>
+    </row>
+    <row r="100" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A100" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="27"/>
+    </row>
+    <row r="101" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A101" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="27"/>
+    </row>
+    <row r="102" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A102" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="27"/>
+    </row>
+    <row r="103" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A103" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="27"/>
+    </row>
+    <row r="104" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A104" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="27"/>
+    </row>
+    <row r="105" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A105" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="27"/>
+    </row>
+    <row r="106" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A106" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="27"/>
+    </row>
+    <row r="107" spans="1:5" ht="38" x14ac:dyDescent="0.2">
+      <c r="A107" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" s="13">
+        <v>3</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="38" x14ac:dyDescent="0.2">
+      <c r="A108" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108" s="13">
+        <v>4</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A109" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+    </row>
+    <row r="110" spans="1:5" ht="76" x14ac:dyDescent="0.2">
+      <c r="A110" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A111" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B111" s="13">
+        <v>1</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A112" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" s="13">
+        <v>2</v>
+      </c>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="27"/>
+    </row>
+    <row r="113" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A113" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B113" s="13">
+        <v>3</v>
+      </c>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="27"/>
+    </row>
+    <row r="114" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A114" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B114" s="13">
+        <v>4</v>
+      </c>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="27"/>
+    </row>
+    <row r="115" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A115" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B115" s="13">
+        <v>5</v>
+      </c>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="27"/>
+    </row>
+    <row r="116" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A116" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B116" s="13">
+        <v>6</v>
+      </c>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="27"/>
+    </row>
+    <row r="117" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A117" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B117" s="13">
+        <v>7</v>
+      </c>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="27"/>
+    </row>
+    <row r="118" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A118" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B118" s="13">
+        <v>8</v>
+      </c>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="27"/>
+    </row>
+    <row r="119" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A119" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" s="13">
+        <v>9</v>
+      </c>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="27"/>
+    </row>
+    <row r="120" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A120" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" s="13">
+        <v>10</v>
+      </c>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="27"/>
+    </row>
+    <row r="121" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+    </row>
+    <row r="122" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A123" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B123" s="36"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+    </row>
+    <row r="124" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3664,7 +3941,41 @@
       <c r="D344" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="46">
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="C111:C120"/>
+    <mergeCell ref="D111:D120"/>
+    <mergeCell ref="E111:E120"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="B98:B106"/>
+    <mergeCell ref="C98:C106"/>
+    <mergeCell ref="D98:D106"/>
+    <mergeCell ref="E98:E106"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E85:E93"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="C34:C42"/>
+    <mergeCell ref="D34:D42"/>
+    <mergeCell ref="E34:E42"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="C44:C52"/>
+    <mergeCell ref="D44:D52"/>
+    <mergeCell ref="E44:E52"/>
     <mergeCell ref="A79:E79"/>
     <mergeCell ref="B54:B62"/>
     <mergeCell ref="C54:C62"/>
@@ -3677,23 +3988,6 @@
     <mergeCell ref="C68:C78"/>
     <mergeCell ref="D68:D78"/>
     <mergeCell ref="E68:E78"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="C44:C52"/>
-    <mergeCell ref="D44:D52"/>
-    <mergeCell ref="E44:E52"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="C34:C42"/>
-    <mergeCell ref="D34:D42"/>
-    <mergeCell ref="E34:E42"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
